--- a/Question_Set2/Programming skills/Express.js.xlsx
+++ b/Question_Set2/Programming skills/Express.js.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "Given the code below, when the client sends the request GET /test, which HTTP response status code will the server return?  const app = express()\n \napp.get('/test', (req, res, next) =&amp;gt {\n req.message = 'hello'\n next(req.message)\n})\napp.post('/test', (req, res, next) =&amp;gt {\n req.message = 'welcome'\n next(req.message)\n})\napp.all('/test', (req, res, next) =&amp;gt {\n req.message = 'goodbye'\n next(req.message)\n})\napp.use((req, res) =&amp;gt res.send(req.message))\napp.listen(2000)", 'ques_type': 2, 'options': ['200', '300', '400', '500'], 'score': '500'}, {'title': "Given the code below, if the client wants the server to respond with hello world, which HTTP request should the client send? const app = express()\n \napp.get('/test', (req, res, next) =&amp;gt {\n req.message = req.query.first\n next()ṁ\n})\napp.post((req, res, next) =&amp;gt {\n req.message = 'hello ' + req.query.message\n})\napp.all('/test', (req, res, next) =&amp;gt {\n req.message = req.message + ' ' + req.query.second\n next()\n})\napp.use((req, res) =&amp;gt res.send(req.message))\napp.listen(2000)", 'ques_type': 2, 'options': ['POST /test/message/world', 'GET /test/first/hello/second/world', 'GET /test?first=hello&amp;ampsecond=world', 'POST /test?message=world'], 'score': 'GET /test?first=hello&amp;ampsecond=world'}, {'title': "Which statement is correct about the middleware below? const middleware = (req, res) =&amp;gt {\n const result = { message: 'hello' }\n res.send(JSON.stringify(result))\n}", 'ques_type': 2, 'options': ['The middleware returns a response with the Content-Type application/json.', 'The middleware responds with the HTTP status code 400.', 'The middleware responds with the HTTP status code 500.', 'The middleware returns a response with the Content-Type text/html.'], 'score': 'The middleware returns a response with the Content-Type text/html.'}, {'title': "True or false: The middleware below will be called for every request that the server receives. const app = express()\nconst middleware = (req, res) =&amp;gt res.send('success')\napp.all('/', middleware)\napp.listen(2000)", 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "Given the code below, when the client sends the request GET /test, which HTTP response status code will the server return?  const app = express()\n \napp.get('/test', (req, res, next) =&amp;gt {\n req.message = 'hello'\n next(req.message)\n})\napp.post('/test', (req, res, next) =&amp;gt {\n req.message = 'welcome'\n next(req.message)\n})\napp.all('/test', (req, res, next) =&amp;gt {\n req.message = 'goodbye'\n next(req.message)\n})\napp.use((req, res) =&amp;gt res.send(req.message))\napp.listen(2000)",
+        "ques_type": 2,
+        "options": [
+            "200",
+            "300",
+            "400",
+            "500"
+        ],
+        "score": "500"
+    },
+    {
+        "title": "Given the code below, if the client wants the server to respond with hello world, which HTTP request should the client send? const app = express()\n \napp.get('/test', (req, res, next) =&amp;gt {\n req.message = req.query.first\n next()\u1e41\n})\napp.post((req, res, next) =&amp;gt {\n req.message = 'hello ' + req.query.message\n})\napp.all('/test', (req, res, next) =&amp;gt {\n req.message = req.message + ' ' + req.query.second\n next()\n})\napp.use((req, res) =&amp;gt res.send(req.message))\napp.listen(2000)",
+        "ques_type": 2,
+        "options": [
+            "POST /test/message/world",
+            "GET /test/first/hello/second/world",
+            "GET /test?first=hello&amp;ampsecond=world",
+            "POST /test?message=world"
+        ],
+        "score": "GET /test?first=hello&amp;ampsecond=world"
+    },
+    {
+        "title": "Which statement is correct about the middleware below? const middleware = (req, res) =&amp;gt {\n const result = { message: 'hello' }\n res.send(JSON.stringify(result))\n}",
+        "ques_type": 2,
+        "options": [
+            "The middleware returns a response with the Content-Type application/json.",
+            "The middleware responds with the HTTP status code 400.",
+            "The middleware responds with the HTTP status code 500.",
+            "The middleware returns a response with the Content-Type text/html."
+        ],
+        "score": "The middleware returns a response with the Content-Type text/html."
+    },
+    {
+        "title": "True or false: The middleware below will be called for every request that the server receives. const app = express()\nconst middleware = (req, res) =&amp;gt res.send('success')\napp.all('/', middleware)\napp.listen(2000)",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
